--- a/biology/Botanique/Francisco_Freire_Allemão/Francisco_Freire_Allemão.xlsx
+++ b/biology/Botanique/Francisco_Freire_Allemão/Francisco_Freire_Allemão.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francisco_Freire_Allem%C3%A3o</t>
+          <t>Francisco_Freire_Allemão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francisco Freire Allemão e Cysneiro (1797–1874) était un botaniste brésilien qui a travaillé à l'étude des plantes dans le nord-est du Brésil et le long du Rio de Janeiro (rivière Guandu (en)). Son travail avec le musée national du Brésil à Rio de Janeiro a eu lieu à une époque où la botanique brésilienne était dominée par les étrangers.
 Parmi ses nombreux devoirs en tant que physicien de la cour brésilienne, fut celui d'aller en Italie chercher la future femme de l'empereur en Italie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francisco_Freire_Allem%C3%A3o</t>
+          <t>Francisco_Freire_Allemão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Francisco_Freire_Allem%C3%A3o</t>
+          <t>Francisco_Freire_Allemão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Genres et espèces découverte en son nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Astronium urundeuva (Allemao) Engl.
 Myracrodruon urundeuva Fr. Allemão
